--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.5848033250791</v>
+        <v>0.06414266666666667</v>
       </c>
       <c r="H2">
-        <v>3.5848033250791</v>
+        <v>0.192428</v>
       </c>
       <c r="I2">
-        <v>0.8370837650512917</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="J2">
-        <v>0.8370837650512917</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>317.0563207515216</v>
+        <v>6.346706735290667</v>
       </c>
       <c r="R2">
-        <v>317.0563207515216</v>
+        <v>57.12036061761599</v>
       </c>
       <c r="S2">
-        <v>0.1632852408264379</v>
+        <v>0.002446936286642172</v>
       </c>
       <c r="T2">
-        <v>0.1632852408264379</v>
+        <v>0.002446936286642172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.5848033250791</v>
+        <v>0.06414266666666667</v>
       </c>
       <c r="H3">
-        <v>3.5848033250791</v>
+        <v>0.192428</v>
       </c>
       <c r="I3">
-        <v>0.8370837650512917</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="J3">
-        <v>0.8370837650512917</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>583.7402815711866</v>
+        <v>10.45565463895511</v>
       </c>
       <c r="R3">
-        <v>583.7402815711866</v>
+        <v>94.10089175059599</v>
       </c>
       <c r="S3">
-        <v>0.3006285199756152</v>
+        <v>0.004031117523423131</v>
       </c>
       <c r="T3">
-        <v>0.3006285199756152</v>
+        <v>0.004031117523423131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.5848033250791</v>
+        <v>0.06414266666666667</v>
       </c>
       <c r="H4">
-        <v>3.5848033250791</v>
+        <v>0.192428</v>
       </c>
       <c r="I4">
-        <v>0.8370837650512917</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="J4">
-        <v>0.8370837650512917</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>221.6144648943286</v>
+        <v>4.194680671217779</v>
       </c>
       <c r="R4">
-        <v>221.6144648943286</v>
+        <v>37.75212604096001</v>
       </c>
       <c r="S4">
-        <v>0.1141323131017218</v>
+        <v>0.001617235012326318</v>
       </c>
       <c r="T4">
-        <v>0.1141323131017218</v>
+        <v>0.001617235012326318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.5848033250791</v>
+        <v>0.06414266666666667</v>
       </c>
       <c r="H5">
-        <v>3.5848033250791</v>
+        <v>0.192428</v>
       </c>
       <c r="I5">
-        <v>0.8370837650512917</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="J5">
-        <v>0.8370837650512917</v>
+        <v>0.01166313146606535</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>502.982001775037</v>
+        <v>9.254041905657777</v>
       </c>
       <c r="R5">
-        <v>502.982001775037</v>
+        <v>83.28637715092</v>
       </c>
       <c r="S5">
-        <v>0.2590376911475169</v>
+        <v>0.003567842643673726</v>
       </c>
       <c r="T5">
-        <v>0.2590376911475169</v>
+        <v>0.003567842643673726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.697687238884285</v>
+        <v>4.404016666666667</v>
       </c>
       <c r="H6">
-        <v>0.697687238884285</v>
+        <v>13.21205</v>
       </c>
       <c r="I6">
-        <v>0.1629162349487082</v>
+        <v>0.8007871831865877</v>
       </c>
       <c r="J6">
-        <v>0.1629162349487082</v>
+        <v>0.8007871831865877</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>61.70663462857012</v>
+        <v>435.7630216080667</v>
       </c>
       <c r="R6">
-        <v>61.70663462857012</v>
+        <v>3921.8671944726</v>
       </c>
       <c r="S6">
-        <v>0.0317791573182719</v>
+        <v>0.1680059272347616</v>
       </c>
       <c r="T6">
-        <v>0.0317791573182719</v>
+        <v>0.1680059272347617</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.697687238884285</v>
+        <v>4.404016666666667</v>
       </c>
       <c r="H7">
-        <v>0.697687238884285</v>
+        <v>13.21205</v>
       </c>
       <c r="I7">
-        <v>0.1629162349487082</v>
+        <v>0.8007871831865877</v>
       </c>
       <c r="J7">
-        <v>0.1629162349487082</v>
+        <v>0.8007871831865877</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>113.6096204848141</v>
+        <v>717.8821786465945</v>
       </c>
       <c r="R7">
-        <v>113.6096204848141</v>
+        <v>6460.93960781935</v>
       </c>
       <c r="S7">
-        <v>0.05850939731178362</v>
+        <v>0.2767753459753393</v>
       </c>
       <c r="T7">
-        <v>0.05850939731178362</v>
+        <v>0.2767753459753393</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.697687238884285</v>
+        <v>4.404016666666667</v>
       </c>
       <c r="H8">
-        <v>0.697687238884285</v>
+        <v>13.21205</v>
       </c>
       <c r="I8">
-        <v>0.1629162349487082</v>
+        <v>0.8007871831865877</v>
       </c>
       <c r="J8">
-        <v>0.1629162349487082</v>
+        <v>0.8007871831865877</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>43.13139943473209</v>
+        <v>288.0055436951112</v>
       </c>
       <c r="R8">
-        <v>43.13139943473209</v>
+        <v>2592.049893256001</v>
       </c>
       <c r="S8">
-        <v>0.02221283880159868</v>
+        <v>0.1110388812678297</v>
       </c>
       <c r="T8">
-        <v>0.02221283880159868</v>
+        <v>0.1110388812678297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.404016666666667</v>
+      </c>
+      <c r="H9">
+        <v>13.21205</v>
+      </c>
+      <c r="I9">
+        <v>0.8007871831865877</v>
+      </c>
+      <c r="J9">
+        <v>0.8007871831865877</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N9">
+        <v>432.81839</v>
+      </c>
+      <c r="O9">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P9">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q9">
+        <v>635.3798010666112</v>
+      </c>
+      <c r="R9">
+        <v>5718.418209599501</v>
+      </c>
+      <c r="S9">
+        <v>0.244967028708657</v>
+      </c>
+      <c r="T9">
+        <v>0.2449670287086571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7371253333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.211376</v>
+      </c>
+      <c r="I10">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="J10">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>98.946724</v>
+      </c>
+      <c r="N10">
+        <v>296.840172</v>
+      </c>
+      <c r="O10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P10">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q10">
+        <v>72.93613691074133</v>
+      </c>
+      <c r="R10">
+        <v>656.425232196672</v>
+      </c>
+      <c r="S10">
+        <v>0.02812010818492953</v>
+      </c>
+      <c r="T10">
+        <v>0.02812010818492953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7371253333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.211376</v>
+      </c>
+      <c r="I11">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="J11">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N11">
+        <v>489.018707</v>
+      </c>
+      <c r="O11">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P11">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q11">
+        <v>120.1560258012036</v>
+      </c>
+      <c r="R11">
+        <v>1081.404232210832</v>
+      </c>
+      <c r="S11">
+        <v>0.04632546482049052</v>
+      </c>
+      <c r="T11">
+        <v>0.04632546482049053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7371253333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.211376</v>
+      </c>
+      <c r="I12">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="J12">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N12">
+        <v>196.18832</v>
+      </c>
+      <c r="O12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P12">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q12">
+        <v>48.2051269253689</v>
+      </c>
+      <c r="R12">
+        <v>433.8461423283201</v>
+      </c>
+      <c r="S12">
+        <v>0.01858520949455444</v>
+      </c>
+      <c r="T12">
+        <v>0.01858520949455445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7371253333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.211376</v>
+      </c>
+      <c r="I13">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="J13">
+        <v>0.1340323082342576</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N13">
+        <v>432.81839</v>
+      </c>
+      <c r="O13">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P13">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q13">
+        <v>106.3471333338489</v>
+      </c>
+      <c r="R13">
+        <v>957.1242000046401</v>
+      </c>
+      <c r="S13">
+        <v>0.0410015257342831</v>
+      </c>
+      <c r="T13">
+        <v>0.0410015257342831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.697687238884285</v>
-      </c>
-      <c r="H9">
-        <v>0.697687238884285</v>
-      </c>
-      <c r="I9">
-        <v>0.1629162349487082</v>
-      </c>
-      <c r="J9">
-        <v>0.1629162349487082</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>140.309511056353</v>
-      </c>
-      <c r="N9">
-        <v>140.309511056353</v>
-      </c>
-      <c r="O9">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="P9">
-        <v>0.309452532664571</v>
-      </c>
-      <c r="Q9">
-        <v>97.89215535811097</v>
-      </c>
-      <c r="R9">
-        <v>97.89215535811097</v>
-      </c>
-      <c r="S9">
-        <v>0.05041484151705405</v>
-      </c>
-      <c r="T9">
-        <v>0.05041484151705405</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2943246666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.8829739999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.05351737711308948</v>
+      </c>
+      <c r="J14">
+        <v>0.05351737711308949</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>98.946724</v>
+      </c>
+      <c r="N14">
+        <v>296.840172</v>
+      </c>
+      <c r="O14">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="P14">
+        <v>0.2098009692989996</v>
+      </c>
+      <c r="Q14">
+        <v>29.12246155905866</v>
+      </c>
+      <c r="R14">
+        <v>262.102154031528</v>
+      </c>
+      <c r="S14">
+        <v>0.01122799759266627</v>
+      </c>
+      <c r="T14">
+        <v>0.01122799759266627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2943246666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.8829739999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.05351737711308948</v>
+      </c>
+      <c r="J15">
+        <v>0.05351737711308949</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>163.0062356666667</v>
+      </c>
+      <c r="N15">
+        <v>489.018707</v>
+      </c>
+      <c r="O15">
+        <v>0.345629090707923</v>
+      </c>
+      <c r="P15">
+        <v>0.3456290907079231</v>
+      </c>
+      <c r="Q15">
+        <v>47.97675597717977</v>
+      </c>
+      <c r="R15">
+        <v>431.7908037946179</v>
+      </c>
+      <c r="S15">
+        <v>0.01849716238867013</v>
+      </c>
+      <c r="T15">
+        <v>0.01849716238867013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2943246666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.8829739999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.05351737711308948</v>
+      </c>
+      <c r="J16">
+        <v>0.05351737711308949</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.39610666666668</v>
+      </c>
+      <c r="N16">
+        <v>196.18832</v>
+      </c>
+      <c r="O16">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="P16">
+        <v>0.1386621609326595</v>
+      </c>
+      <c r="Q16">
+        <v>19.24768729596445</v>
+      </c>
+      <c r="R16">
+        <v>173.22918566368</v>
+      </c>
+      <c r="S16">
+        <v>0.007420835157949039</v>
+      </c>
+      <c r="T16">
+        <v>0.007420835157949042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2943246666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.8829739999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.05351737711308948</v>
+      </c>
+      <c r="J17">
+        <v>0.05351737711308949</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>144.2727966666667</v>
+      </c>
+      <c r="N17">
+        <v>432.81839</v>
+      </c>
+      <c r="O17">
+        <v>0.3059077790604178</v>
+      </c>
+      <c r="P17">
+        <v>0.3059077790604179</v>
+      </c>
+      <c r="Q17">
+        <v>42.46304278798443</v>
+      </c>
+      <c r="R17">
+        <v>382.16738509186</v>
+      </c>
+      <c r="S17">
+        <v>0.01637138197380404</v>
+      </c>
+      <c r="T17">
+        <v>0.01637138197380405</v>
       </c>
     </row>
   </sheetData>
